--- a/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>63538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50736</v>
+        <v>51237</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78227</v>
+        <v>78529</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1100137444734284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08784813144539023</v>
+        <v>0.08871623557379027</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1354488806059045</v>
+        <v>0.1359710359453473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>280</v>
@@ -762,19 +762,19 @@
         <v>163825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146017</v>
+        <v>147872</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182170</v>
+        <v>181126</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1996112249044812</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1779130906323139</v>
+        <v>0.180174277373178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2219644712186514</v>
+        <v>0.2206917869177803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>364</v>
@@ -783,19 +783,19 @@
         <v>227362</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206988</v>
+        <v>206305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250768</v>
+        <v>251490</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1626036106721633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1480326189414531</v>
+        <v>0.1475439441317549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1793426164163655</v>
+        <v>0.1798591909971796</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>16675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11063</v>
+        <v>10886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24103</v>
+        <v>24606</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02887159665402662</v>
+        <v>0.02887159665402661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01915558933445387</v>
+        <v>0.0188495961015963</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0417331316600575</v>
+        <v>0.04260452107337736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -833,19 +833,19 @@
         <v>54985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43086</v>
+        <v>43820</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65718</v>
+        <v>65666</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06699660419859385</v>
+        <v>0.06699660419859384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05249735255056069</v>
+        <v>0.0533917714097812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08007414825656459</v>
+        <v>0.08001024352716678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -854,19 +854,19 @@
         <v>71660</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58264</v>
+        <v>60340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85824</v>
+        <v>85400</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05124933580415183</v>
+        <v>0.05124933580415182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04166895557488163</v>
+        <v>0.04315364755796106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06137913607284463</v>
+        <v>0.06107576427939394</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>28632</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20414</v>
+        <v>20342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40554</v>
+        <v>40513</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04957514604361622</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03534657783833076</v>
+        <v>0.03522083838081193</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07021783842944261</v>
+        <v>0.07014794804666878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>138</v>
@@ -904,19 +904,19 @@
         <v>74828</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62825</v>
+        <v>62973</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88054</v>
+        <v>87816</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09117340394947639</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07654829928035511</v>
+        <v>0.07672868326365809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1072890181455766</v>
+        <v>0.1069990962293177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>172</v>
@@ -925,19 +925,19 @@
         <v>103459</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88650</v>
+        <v>89058</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>121476</v>
+        <v>121450</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07399153372377083</v>
+        <v>0.07399153372377082</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06340031859663069</v>
+        <v>0.06369170944751203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08687650424867484</v>
+        <v>0.08685793943383507</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>468698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>449878</v>
+        <v>450174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>484860</v>
+        <v>483605</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8115395128289287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7789524045822019</v>
+        <v>0.7794645353514147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8395232592208969</v>
+        <v>0.8373510462684042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>911</v>
@@ -975,19 +975,19 @@
         <v>527081</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>507156</v>
+        <v>507998</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>550531</v>
+        <v>548821</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6422187669474486</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6179410571558307</v>
+        <v>0.618967193435536</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6707910424236366</v>
+        <v>0.6687077783425015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1459</v>
@@ -996,19 +996,19 @@
         <v>995779</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>963710</v>
+        <v>968808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1021559</v>
+        <v>1022195</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7121555197999142</v>
+        <v>0.7121555197999141</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6892200749413961</v>
+        <v>0.6928662964255349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7305927382104853</v>
+        <v>0.7310470276017896</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>83780</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68174</v>
+        <v>68838</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104815</v>
+        <v>103638</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03757816726643003</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03057842104615845</v>
+        <v>0.03087639843523518</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04701313689141169</v>
+        <v>0.04648534989842573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>198</v>
@@ -1121,19 +1121,19 @@
         <v>131342</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113993</v>
+        <v>113788</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151958</v>
+        <v>150494</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06050630685872342</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0525137516304609</v>
+        <v>0.05241957302334704</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07000342891370563</v>
+        <v>0.06932877994238744</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>291</v>
@@ -1142,19 +1142,19 @@
         <v>215122</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>192312</v>
+        <v>191048</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>244695</v>
+        <v>241937</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04888914403490172</v>
+        <v>0.04888914403490174</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04370510586037365</v>
+        <v>0.04341786465944011</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05560984585946405</v>
+        <v>0.0549831172057455</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>35527</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24994</v>
+        <v>24358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50638</v>
+        <v>50386</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01593528351446486</v>
+        <v>0.01593528351446487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01121056017609771</v>
+        <v>0.0109253194881965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02271296553360706</v>
+        <v>0.02259973602307885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -1192,19 +1192,19 @@
         <v>66274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54769</v>
+        <v>53688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80669</v>
+        <v>79151</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03053080347477651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02523074111760098</v>
+        <v>0.02473282866063005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03716217873031223</v>
+        <v>0.03646302293860504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -1213,19 +1213,19 @@
         <v>101801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85773</v>
+        <v>84393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123616</v>
+        <v>122308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02313558803678816</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01949283090742319</v>
+        <v>0.01917935033286345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02809316399734667</v>
+        <v>0.02779591381067605</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>154608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129757</v>
+        <v>130398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178398</v>
+        <v>180734</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06934697908935926</v>
+        <v>0.06934697908935927</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05820037450880346</v>
+        <v>0.05848792933315657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08001760694891119</v>
+        <v>0.08106537588867523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>350</v>
@@ -1263,19 +1263,19 @@
         <v>205467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183843</v>
+        <v>184493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>229467</v>
+        <v>228626</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0946538256450779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08469190842010405</v>
+        <v>0.084991439436764</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1057099354372959</v>
+        <v>0.1053225836099631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>520</v>
@@ -1284,19 +1284,19 @@
         <v>360075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>328256</v>
+        <v>331227</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>394107</v>
+        <v>396875</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.08183142652229551</v>
+        <v>0.08183142652229554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07460000057192719</v>
+        <v>0.07527537224799982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0895655658705016</v>
+        <v>0.09019463448408455</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1955570</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1920688</v>
+        <v>1923212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1986715</v>
+        <v>1983830</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8771395701297459</v>
+        <v>0.877139570129746</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.861493998811912</v>
+        <v>0.8626259558988744</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8911094361422527</v>
+        <v>0.8898152978695888</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2269</v>
@@ -1334,19 +1334,19 @@
         <v>1767639</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1733781</v>
+        <v>1732068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1797861</v>
+        <v>1795139</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8143090640214222</v>
+        <v>0.8143090640214223</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7987114111200722</v>
+        <v>0.7979220890326938</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8282313105055119</v>
+        <v>0.8269775711050577</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3957</v>
@@ -1355,19 +1355,19 @@
         <v>3723209</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3678228</v>
+        <v>3675220</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3762339</v>
+        <v>3767262</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8461438414060144</v>
+        <v>0.8461438414060146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8359213439893439</v>
+        <v>0.8352378278439406</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8550366604176174</v>
+        <v>0.8561554868163409</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>25215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16181</v>
+        <v>16150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36289</v>
+        <v>36079</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03543470714959292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02273874020019298</v>
+        <v>0.02269584308465593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05099690278488025</v>
+        <v>0.05070156961822406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -1480,19 +1480,19 @@
         <v>37313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28387</v>
+        <v>28751</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49863</v>
+        <v>49762</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05077455050417822</v>
+        <v>0.05077455050417824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03862844873843129</v>
+        <v>0.03912339680295782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06785177247746471</v>
+        <v>0.06771450285220788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>80</v>
@@ -1501,19 +1501,19 @@
         <v>62528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48445</v>
+        <v>50143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77896</v>
+        <v>78209</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04322812609559807</v>
+        <v>0.04322812609559806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03349214838806164</v>
+        <v>0.03466571487665416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05385261249762188</v>
+        <v>0.05406901552793839</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>12842</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7322</v>
+        <v>7383</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20663</v>
+        <v>20365</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01804686571179271</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0102893017838223</v>
+        <v>0.01037499837741424</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02903786431461648</v>
+        <v>0.0286195657527907</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -1551,19 +1551,19 @@
         <v>19153</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13308</v>
+        <v>12887</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27837</v>
+        <v>27637</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02606313986161062</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01810957327576352</v>
+        <v>0.0175369074790296</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0378791710481297</v>
+        <v>0.03760738147662995</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>45</v>
@@ -1572,19 +1572,19 @@
         <v>31995</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>23321</v>
+        <v>22638</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>43935</v>
+        <v>43361</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02211953981878663</v>
+        <v>0.02211953981878662</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01612285350102256</v>
+        <v>0.01565067671184284</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0303738161785582</v>
+        <v>0.02997725852825022</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>44811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33959</v>
+        <v>32970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58547</v>
+        <v>58906</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0629731443565652</v>
+        <v>0.06297314435656519</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0477224172668308</v>
+        <v>0.04633309309262683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08227729545752989</v>
+        <v>0.08278104673239246</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -1622,19 +1622,19 @@
         <v>54820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44033</v>
+        <v>43758</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68119</v>
+        <v>68664</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07459778725979926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0599182704828082</v>
+        <v>0.05954429805991283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0926940308192047</v>
+        <v>0.09343554484695504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -1643,19 +1643,19 @@
         <v>99631</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82689</v>
+        <v>82140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117587</v>
+        <v>118089</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06887905292084845</v>
+        <v>0.06887905292084844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05716606130068281</v>
+        <v>0.05678707880134287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08129249737343371</v>
+        <v>0.0816400945000299</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>628719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>612619</v>
+        <v>611750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>645448</v>
+        <v>644551</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8835452827820491</v>
+        <v>0.883545282782049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.860919652165415</v>
+        <v>0.8596980311416166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9070544805825875</v>
+        <v>0.905794186533954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>827</v>
@@ -1693,19 +1693,19 @@
         <v>623591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>605843</v>
+        <v>606216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>638930</v>
+        <v>638925</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8485645223744118</v>
+        <v>0.8485645223744116</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8244147365868201</v>
+        <v>0.8249224015156092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.869437384958999</v>
+        <v>0.8694315693688272</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1418</v>
@@ -1714,19 +1714,19 @@
         <v>1252310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1227078</v>
+        <v>1228777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1276414</v>
+        <v>1275112</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.865773281164767</v>
+        <v>0.8657732811647669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.848329269464894</v>
+        <v>0.8495037959474055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8824374261072598</v>
+        <v>0.8815369870319198</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>172532</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>147526</v>
+        <v>147504</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>198192</v>
+        <v>199143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04903419257396877</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04192716985644698</v>
+        <v>0.0419210981051996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05632673268877649</v>
+        <v>0.05659696587490506</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>532</v>
@@ -1839,19 +1839,19 @@
         <v>332480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>305425</v>
+        <v>307434</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>361667</v>
+        <v>364977</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08922483178919419</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08196435382174819</v>
+        <v>0.08250325473323745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09705742711853707</v>
+        <v>0.0979455755204455</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>735</v>
@@ -1860,19 +1860,19 @@
         <v>505013</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>466339</v>
+        <v>467767</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>548924</v>
+        <v>542270</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06970562841543709</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06436757983513511</v>
+        <v>0.06456469750761959</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07576658845422055</v>
+        <v>0.07484816330628122</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>65044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50034</v>
+        <v>50611</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82554</v>
+        <v>83345</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01848567386169207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01421972862728714</v>
+        <v>0.0143839303691174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02346221398442497</v>
+        <v>0.02368689106720339</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>229</v>
@@ -1910,19 +1910,19 @@
         <v>140413</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121293</v>
+        <v>121089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160314</v>
+        <v>159888</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03768128809545278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03255038306875505</v>
+        <v>0.03249555996656538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04302209867845005</v>
+        <v>0.04290782990951689</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>308</v>
@@ -1931,19 +1931,19 @@
         <v>205456</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>182020</v>
+        <v>184075</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>231119</v>
+        <v>233457</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02835864219010921</v>
+        <v>0.02835864219010922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02512371398875887</v>
+        <v>0.02540745489321753</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03190081870532584</v>
+        <v>0.03222354094310998</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>228051</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>200389</v>
+        <v>198947</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>258570</v>
+        <v>259026</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06481263594633734</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05695119530498422</v>
+        <v>0.05654140284856454</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07348629627164042</v>
+        <v>0.07361589343934079</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>581</v>
@@ -1981,19 +1981,19 @@
         <v>335115</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>307410</v>
+        <v>308890</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>364964</v>
+        <v>365370</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08993196155210237</v>
+        <v>0.08993196155210234</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08249704701307417</v>
+        <v>0.08289402508054601</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09794223100605701</v>
+        <v>0.09805126472635683</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>834</v>
@@ -2002,19 +2002,19 @@
         <v>563166</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>523877</v>
+        <v>525048</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>603130</v>
+        <v>605069</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07773237391964669</v>
+        <v>0.0777323739196467</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07230941332835693</v>
+        <v>0.07247107368164982</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08324854349377489</v>
+        <v>0.08351617408918058</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>3052987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3011457</v>
+        <v>3011109</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3091742</v>
+        <v>3092158</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8676674976180018</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8558646403200658</v>
+        <v>0.8557655651366531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8786817230621677</v>
+        <v>0.878799874682837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4007</v>
@@ -2052,19 +2052,19 @@
         <v>2918312</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2876492</v>
+        <v>2876134</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2958880</v>
+        <v>2957988</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7831619185632506</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7719390656129452</v>
+        <v>0.7718430691652165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7940487400426129</v>
+        <v>0.7938093831106054</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6834</v>
@@ -2073,19 +2073,19 @@
         <v>5971298</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5910803</v>
+        <v>5905748</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6025086</v>
+        <v>6021197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8242033554748069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8158534294860272</v>
+        <v>0.8151556533628029</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8316275805206012</v>
+        <v>0.8310908059619573</v>
       </c>
     </row>
     <row r="23">
